--- a/official/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
+++ b/official/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2024_v1_1_0/PStables_official/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3-master 25/official/L1Menu_Collisions2024_v1_1_0/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B3E7A6-308A-104D-979E-825D0EDE96FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F493BB-776D-054C-99E2-2851FE71B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1630,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>397</v>
@@ -15508,7 +15508,7 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>398</v>

--- a/official/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
+++ b/official/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3-master 25/official/L1Menu_Collisions2024_v1_1_0/PrescaleTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F493BB-776D-054C-99E2-2851FE71B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F2E9F-B6C8-4B4B-8E8A-30427BDB497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t>Index</t>
   </si>
@@ -1210,15 +1210,6 @@
     <t>2p0E34_NoEcalTiming</t>
   </si>
   <si>
-    <t>L1_MHT_120</t>
-  </si>
-  <si>
-    <t>L1_MHT_150</t>
-  </si>
-  <si>
-    <t>L1_MHT_200</t>
-  </si>
-  <si>
     <t>L1_SingleMu0_Upt10_SQ14_BMTF</t>
   </si>
   <si>
@@ -1229,6 +1220,18 @@
   </si>
   <si>
     <t>L1_SingleMu0_Upt25_SQ14_BMTF</t>
+  </si>
+  <si>
+    <t>L1_MHT120</t>
+  </si>
+  <si>
+    <t>L1_MHT150</t>
+  </si>
+  <si>
+    <t>L1_MHT200</t>
+  </si>
+  <si>
+    <t>2p0E34_NoScouting</t>
   </si>
 </sst>
 </file>
@@ -1628,27 +1631,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M391"/>
+  <dimension ref="A1:N391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A340" sqref="A340"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1688,8 +1691,11 @@
       <c r="M1" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1729,8 +1735,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1770,8 +1779,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1811,8 +1823,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1852,8 +1867,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1893,8 +1911,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1934,8 +1955,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1975,8 +1999,11 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2016,8 +2043,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2057,8 +2087,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2098,8 +2131,11 @@
       <c r="M11" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2139,8 +2175,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2180,8 +2219,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2221,8 +2263,11 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2262,8 +2307,11 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2303,8 +2351,11 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2344,8 +2395,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2385,8 +2439,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2426,8 +2483,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2467,8 +2527,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2508,8 +2571,11 @@
       <c r="M21">
         <v>22000</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2549,8 +2615,11 @@
       <c r="M22">
         <v>4400</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2590,8 +2659,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2631,8 +2703,11 @@
       <c r="M24">
         <v>2200</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2672,8 +2747,11 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2713,8 +2791,11 @@
       <c r="M26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2754,8 +2835,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2795,8 +2879,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2836,8 +2923,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2877,8 +2967,11 @@
       <c r="M30">
         <v>325</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2918,8 +3011,11 @@
       <c r="M31">
         <v>210</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2959,8 +3055,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3000,8 +3099,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3041,8 +3143,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3082,8 +3187,11 @@
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3123,8 +3231,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3164,8 +3275,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3205,8 +3319,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3246,8 +3363,11 @@
       <c r="M39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3287,8 +3407,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3328,8 +3451,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3369,8 +3495,11 @@
       <c r="M42">
         <v>1500</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3410,8 +3539,11 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3451,8 +3583,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3492,8 +3627,11 @@
       <c r="M45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3533,8 +3671,11 @@
       <c r="M46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3574,8 +3715,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3615,8 +3759,11 @@
       <c r="M48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3656,8 +3803,11 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3697,8 +3847,11 @@
       <c r="M50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3738,8 +3891,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3779,8 +3935,11 @@
       <c r="M52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3820,8 +3979,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3861,8 +4023,11 @@
       <c r="M54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3902,8 +4067,11 @@
       <c r="M55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3943,8 +4111,11 @@
       <c r="M56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3955,37 +4126,40 @@
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3996,37 +4170,40 @@
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4037,37 +4214,40 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4107,8 +4287,11 @@
       <c r="M60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4148,8 +4331,11 @@
       <c r="M61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4189,8 +4375,11 @@
       <c r="M62">
         <v>190</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4230,8 +4419,11 @@
       <c r="M63">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4271,8 +4463,11 @@
       <c r="M64">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4312,8 +4507,11 @@
       <c r="M65">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4353,8 +4551,11 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4394,8 +4595,11 @@
       <c r="M67">
         <v>450</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4435,8 +4639,11 @@
       <c r="M68">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4476,8 +4683,11 @@
       <c r="M69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4517,8 +4727,11 @@
       <c r="M70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4558,8 +4771,11 @@
       <c r="M71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4599,8 +4815,11 @@
       <c r="M72">
         <v>1000</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4640,8 +4859,11 @@
       <c r="M73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4681,8 +4903,11 @@
       <c r="M74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4722,8 +4947,11 @@
       <c r="M75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4763,8 +4991,11 @@
       <c r="M76">
         <v>700</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4804,8 +5035,11 @@
       <c r="M77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4845,8 +5079,11 @@
       <c r="M78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4886,8 +5123,11 @@
       <c r="M79">
         <v>800</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4927,8 +5167,11 @@
       <c r="M80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4968,8 +5211,11 @@
       <c r="M81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5009,8 +5255,11 @@
       <c r="M82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5050,8 +5299,11 @@
       <c r="M83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5091,8 +5343,11 @@
       <c r="M84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5132,8 +5387,11 @@
       <c r="M85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5173,8 +5431,11 @@
       <c r="M86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5214,8 +5475,11 @@
       <c r="M87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5255,8 +5519,11 @@
       <c r="M88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5296,8 +5563,11 @@
       <c r="M89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5337,8 +5607,11 @@
       <c r="M90">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5378,8 +5651,11 @@
       <c r="M91">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5419,8 +5695,11 @@
       <c r="M92">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5460,8 +5739,11 @@
       <c r="M93">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5501,8 +5783,11 @@
       <c r="M94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5542,8 +5827,11 @@
       <c r="M95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5583,8 +5871,11 @@
       <c r="M96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5624,8 +5915,11 @@
       <c r="M97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5665,8 +5959,11 @@
       <c r="M98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5706,8 +6003,11 @@
       <c r="M99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5747,8 +6047,11 @@
       <c r="M100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5788,8 +6091,11 @@
       <c r="M101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5829,8 +6135,11 @@
       <c r="M102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5870,8 +6179,11 @@
       <c r="M103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5911,8 +6223,11 @@
       <c r="M104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5952,8 +6267,11 @@
       <c r="M105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5993,8 +6311,11 @@
       <c r="M106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6034,8 +6355,11 @@
       <c r="M107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6075,8 +6399,11 @@
       <c r="M108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6116,8 +6443,11 @@
       <c r="M109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6157,8 +6487,11 @@
       <c r="M110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6198,8 +6531,11 @@
       <c r="M111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6239,8 +6575,11 @@
       <c r="M112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6280,8 +6619,11 @@
       <c r="M113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6321,8 +6663,11 @@
       <c r="M114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6362,8 +6707,11 @@
       <c r="M115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6403,8 +6751,11 @@
       <c r="M116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6444,8 +6795,11 @@
       <c r="M117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6485,8 +6839,11 @@
       <c r="M118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6526,8 +6883,11 @@
       <c r="M119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6567,8 +6927,11 @@
       <c r="M120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6608,8 +6971,11 @@
       <c r="M121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -6649,8 +7015,11 @@
       <c r="M122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -6690,8 +7059,11 @@
       <c r="M123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -6731,8 +7103,11 @@
       <c r="M124">
         <v>11000</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -6772,8 +7147,11 @@
       <c r="M125">
         <v>400</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -6813,8 +7191,11 @@
       <c r="M126">
         <v>400</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -6854,8 +7235,11 @@
       <c r="M127">
         <v>256</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -6895,8 +7279,11 @@
       <c r="M128">
         <v>52</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -6936,8 +7323,11 @@
       <c r="M129">
         <v>52</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -6977,8 +7367,11 @@
       <c r="M130">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -7018,8 +7411,11 @@
       <c r="M131">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -7059,8 +7455,11 @@
       <c r="M132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -7100,8 +7499,11 @@
       <c r="M133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -7141,8 +7543,11 @@
       <c r="M134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -7182,8 +7587,11 @@
       <c r="M135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -7223,8 +7631,11 @@
       <c r="M136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -7264,8 +7675,11 @@
       <c r="M137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -7305,8 +7719,11 @@
       <c r="M138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -7346,8 +7763,11 @@
       <c r="M139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -7387,8 +7807,11 @@
       <c r="M140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -7428,8 +7851,11 @@
       <c r="M141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>144</v>
       </c>
@@ -7469,8 +7895,11 @@
       <c r="M142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>147</v>
       </c>
@@ -7510,8 +7939,11 @@
       <c r="M143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>148</v>
       </c>
@@ -7551,8 +7983,11 @@
       <c r="M144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>149</v>
       </c>
@@ -7592,8 +8027,11 @@
       <c r="M145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>150</v>
       </c>
@@ -7633,8 +8071,11 @@
       <c r="M146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>151</v>
       </c>
@@ -7674,8 +8115,11 @@
       <c r="M147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>152</v>
       </c>
@@ -7715,8 +8159,11 @@
       <c r="M148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>153</v>
       </c>
@@ -7756,8 +8203,11 @@
       <c r="M149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>154</v>
       </c>
@@ -7797,8 +8247,11 @@
       <c r="M150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>156</v>
       </c>
@@ -7838,8 +8291,11 @@
       <c r="M151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>159</v>
       </c>
@@ -7879,8 +8335,11 @@
       <c r="M152">
         <v>44000</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>160</v>
       </c>
@@ -7920,8 +8379,11 @@
       <c r="M153">
         <v>9000</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>161</v>
       </c>
@@ -7961,8 +8423,11 @@
       <c r="M154">
         <v>1550</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>162</v>
       </c>
@@ -8002,8 +8467,11 @@
       <c r="M155">
         <v>780</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>163</v>
       </c>
@@ -8043,8 +8511,11 @@
       <c r="M156">
         <v>45</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>164</v>
       </c>
@@ -8084,8 +8555,11 @@
       <c r="M157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>165</v>
       </c>
@@ -8125,8 +8599,11 @@
       <c r="M158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>166</v>
       </c>
@@ -8166,8 +8643,11 @@
       <c r="M159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>167</v>
       </c>
@@ -8207,8 +8687,11 @@
       <c r="M160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>168</v>
       </c>
@@ -8248,8 +8731,11 @@
       <c r="M161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>169</v>
       </c>
@@ -8289,8 +8775,11 @@
       <c r="M162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>170</v>
       </c>
@@ -8330,8 +8819,11 @@
       <c r="M163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>171</v>
       </c>
@@ -8371,8 +8863,11 @@
       <c r="M164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>172</v>
       </c>
@@ -8412,8 +8907,11 @@
       <c r="M165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>173</v>
       </c>
@@ -8453,8 +8951,11 @@
       <c r="M166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>174</v>
       </c>
@@ -8494,8 +8995,11 @@
       <c r="M167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>175</v>
       </c>
@@ -8535,8 +9039,11 @@
       <c r="M168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>176</v>
       </c>
@@ -8576,8 +9083,11 @@
       <c r="M169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>177</v>
       </c>
@@ -8617,8 +9127,11 @@
       <c r="M170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>178</v>
       </c>
@@ -8658,8 +9171,11 @@
       <c r="M171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>179</v>
       </c>
@@ -8699,8 +9215,11 @@
       <c r="M172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>180</v>
       </c>
@@ -8740,8 +9259,11 @@
       <c r="M173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>181</v>
       </c>
@@ -8781,8 +9303,11 @@
       <c r="M174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>182</v>
       </c>
@@ -8822,8 +9347,11 @@
       <c r="M175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>183</v>
       </c>
@@ -8863,8 +9391,11 @@
       <c r="M176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>185</v>
       </c>
@@ -8904,8 +9435,11 @@
       <c r="M177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>186</v>
       </c>
@@ -8945,8 +9479,11 @@
       <c r="M178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>188</v>
       </c>
@@ -8986,8 +9523,11 @@
       <c r="M179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>189</v>
       </c>
@@ -9027,8 +9567,11 @@
       <c r="M180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>190</v>
       </c>
@@ -9068,8 +9611,11 @@
       <c r="M181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>191</v>
       </c>
@@ -9109,8 +9655,11 @@
       <c r="M182">
         <v>25</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>192</v>
       </c>
@@ -9150,8 +9699,11 @@
       <c r="M183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>193</v>
       </c>
@@ -9191,8 +9743,11 @@
       <c r="M184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>194</v>
       </c>
@@ -9232,8 +9787,11 @@
       <c r="M185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>195</v>
       </c>
@@ -9273,8 +9831,11 @@
       <c r="M186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>196</v>
       </c>
@@ -9314,8 +9875,11 @@
       <c r="M187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>197</v>
       </c>
@@ -9355,13 +9919,16 @@
       <c r="M188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>198</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C189" s="6">
         <v>0</v>
@@ -9396,95 +9963,104 @@
       <c r="M189" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>199</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C190" s="6">
         <v>0</v>
       </c>
       <c r="D190" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N190" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>200</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C191" s="6">
         <v>0</v>
       </c>
       <c r="D191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N191" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>201</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C192" s="6">
         <v>0</v>
@@ -9519,8 +10095,11 @@
       <c r="M192" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>214</v>
       </c>
@@ -9560,8 +10139,11 @@
       <c r="M193" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>215</v>
       </c>
@@ -9601,8 +10183,11 @@
       <c r="M194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>216</v>
       </c>
@@ -9642,8 +10227,11 @@
       <c r="M195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>217</v>
       </c>
@@ -9683,8 +10271,11 @@
       <c r="M196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>218</v>
       </c>
@@ -9724,8 +10315,11 @@
       <c r="M197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>219</v>
       </c>
@@ -9765,8 +10359,11 @@
       <c r="M198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>220</v>
       </c>
@@ -9806,8 +10403,11 @@
       <c r="M199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>223</v>
       </c>
@@ -9847,8 +10447,11 @@
       <c r="M200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>224</v>
       </c>
@@ -9888,8 +10491,11 @@
       <c r="M201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>225</v>
       </c>
@@ -9929,8 +10535,11 @@
       <c r="M202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>226</v>
       </c>
@@ -9970,8 +10579,11 @@
       <c r="M203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>227</v>
       </c>
@@ -10011,8 +10623,11 @@
       <c r="M204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>228</v>
       </c>
@@ -10052,8 +10667,11 @@
       <c r="M205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>229</v>
       </c>
@@ -10093,8 +10711,11 @@
       <c r="M206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>230</v>
       </c>
@@ -10134,8 +10755,11 @@
       <c r="M207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>231</v>
       </c>
@@ -10175,8 +10799,11 @@
       <c r="M208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>234</v>
       </c>
@@ -10216,8 +10843,11 @@
       <c r="M209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>235</v>
       </c>
@@ -10257,8 +10887,11 @@
       <c r="M210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>238</v>
       </c>
@@ -10298,8 +10931,11 @@
       <c r="M211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>239</v>
       </c>
@@ -10339,8 +10975,11 @@
       <c r="M212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>240</v>
       </c>
@@ -10380,8 +11019,11 @@
       <c r="M213" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>241</v>
       </c>
@@ -10421,8 +11063,11 @@
       <c r="M214" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>242</v>
       </c>
@@ -10462,8 +11107,11 @@
       <c r="M215" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>243</v>
       </c>
@@ -10503,8 +11151,11 @@
       <c r="M216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>244</v>
       </c>
@@ -10544,8 +11195,11 @@
       <c r="M217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>245</v>
       </c>
@@ -10585,8 +11239,11 @@
       <c r="M218" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>248</v>
       </c>
@@ -10626,8 +11283,11 @@
       <c r="M219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>249</v>
       </c>
@@ -10667,8 +11327,11 @@
       <c r="M220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>250</v>
       </c>
@@ -10708,8 +11371,11 @@
       <c r="M221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>257</v>
       </c>
@@ -10749,8 +11415,11 @@
       <c r="M222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>258</v>
       </c>
@@ -10790,8 +11459,11 @@
       <c r="M223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>259</v>
       </c>
@@ -10831,8 +11503,11 @@
       <c r="M224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>263</v>
       </c>
@@ -10872,8 +11547,11 @@
       <c r="M225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>264</v>
       </c>
@@ -10913,8 +11591,11 @@
       <c r="M226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>266</v>
       </c>
@@ -10954,8 +11635,11 @@
       <c r="M227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>267</v>
       </c>
@@ -10995,8 +11679,11 @@
       <c r="M228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>268</v>
       </c>
@@ -11036,8 +11723,11 @@
       <c r="M229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>269</v>
       </c>
@@ -11077,8 +11767,11 @@
       <c r="M230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>270</v>
       </c>
@@ -11118,8 +11811,11 @@
       <c r="M231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>271</v>
       </c>
@@ -11159,8 +11855,11 @@
       <c r="M232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>272</v>
       </c>
@@ -11200,8 +11899,11 @@
       <c r="M233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>278</v>
       </c>
@@ -11241,8 +11943,11 @@
       <c r="M234" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>279</v>
       </c>
@@ -11282,8 +11987,11 @@
       <c r="M235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>280</v>
       </c>
@@ -11323,8 +12031,11 @@
       <c r="M236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>281</v>
       </c>
@@ -11364,8 +12075,11 @@
       <c r="M237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>282</v>
       </c>
@@ -11405,8 +12119,11 @@
       <c r="M238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>283</v>
       </c>
@@ -11446,8 +12163,11 @@
       <c r="M239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>284</v>
       </c>
@@ -11487,8 +12207,11 @@
       <c r="M240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>286</v>
       </c>
@@ -11528,8 +12251,11 @@
       <c r="M241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>287</v>
       </c>
@@ -11569,8 +12295,11 @@
       <c r="M242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>288</v>
       </c>
@@ -11610,8 +12339,11 @@
       <c r="M243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>290</v>
       </c>
@@ -11651,8 +12383,11 @@
       <c r="M244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>291</v>
       </c>
@@ -11692,8 +12427,11 @@
       <c r="M245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>298</v>
       </c>
@@ -11733,8 +12471,11 @@
       <c r="M246">
         <v>190</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>305</v>
       </c>
@@ -11774,8 +12515,11 @@
       <c r="M247">
         <v>64000</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>306</v>
       </c>
@@ -11815,8 +12559,11 @@
       <c r="M248">
         <v>17000</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>307</v>
       </c>
@@ -11856,8 +12603,11 @@
       <c r="M249">
         <v>1500</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>308</v>
       </c>
@@ -11897,8 +12647,11 @@
       <c r="M250">
         <v>350</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>309</v>
       </c>
@@ -11938,8 +12691,11 @@
       <c r="M251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>310</v>
       </c>
@@ -11979,8 +12735,11 @@
       <c r="M252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>311</v>
       </c>
@@ -12020,8 +12779,11 @@
       <c r="M253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>312</v>
       </c>
@@ -12061,8 +12823,11 @@
       <c r="M254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>314</v>
       </c>
@@ -12102,8 +12867,11 @@
       <c r="M255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>315</v>
       </c>
@@ -12143,8 +12911,11 @@
       <c r="M256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>316</v>
       </c>
@@ -12184,8 +12955,11 @@
       <c r="M257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>317</v>
       </c>
@@ -12225,8 +12999,11 @@
       <c r="M258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>318</v>
       </c>
@@ -12266,8 +13043,11 @@
       <c r="M259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>320</v>
       </c>
@@ -12307,8 +13087,11 @@
       <c r="M260">
         <v>28327</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <v>28327</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>321</v>
       </c>
@@ -12348,8 +13131,11 @@
       <c r="M261">
         <v>1820</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>322</v>
       </c>
@@ -12389,8 +13175,11 @@
       <c r="M262">
         <v>264</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>323</v>
       </c>
@@ -12430,8 +13219,11 @@
       <c r="M263">
         <v>45</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>324</v>
       </c>
@@ -12471,8 +13263,11 @@
       <c r="M264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>327</v>
       </c>
@@ -12512,8 +13307,11 @@
       <c r="M265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>328</v>
       </c>
@@ -12553,8 +13351,11 @@
       <c r="M266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>329</v>
       </c>
@@ -12594,8 +13395,11 @@
       <c r="M267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>330</v>
       </c>
@@ -12635,8 +13439,11 @@
       <c r="M268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>334</v>
       </c>
@@ -12676,8 +13483,11 @@
       <c r="M269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>335</v>
       </c>
@@ -12717,8 +13527,11 @@
       <c r="M270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>336</v>
       </c>
@@ -12758,8 +13571,11 @@
       <c r="M271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>337</v>
       </c>
@@ -12799,8 +13615,11 @@
       <c r="M272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>340</v>
       </c>
@@ -12840,8 +13659,11 @@
       <c r="M273">
         <v>8400</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>341</v>
       </c>
@@ -12881,8 +13703,11 @@
       <c r="M274">
         <v>170</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>342</v>
       </c>
@@ -12922,8 +13747,11 @@
       <c r="M275">
         <v>70</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>343</v>
       </c>
@@ -12963,8 +13791,11 @@
       <c r="M276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>345</v>
       </c>
@@ -13004,8 +13835,11 @@
       <c r="M277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>346</v>
       </c>
@@ -13045,8 +13879,11 @@
       <c r="M278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>347</v>
       </c>
@@ -13086,8 +13923,11 @@
       <c r="M279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>348</v>
       </c>
@@ -13127,8 +13967,11 @@
       <c r="M280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>349</v>
       </c>
@@ -13168,8 +14011,11 @@
       <c r="M281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>350</v>
       </c>
@@ -13209,8 +14055,11 @@
       <c r="M282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>357</v>
       </c>
@@ -13250,8 +14099,11 @@
       <c r="M283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>358</v>
       </c>
@@ -13291,8 +14143,11 @@
       <c r="M284" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>362</v>
       </c>
@@ -13332,8 +14187,11 @@
       <c r="M285" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>363</v>
       </c>
@@ -13373,8 +14231,11 @@
       <c r="M286" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>364</v>
       </c>
@@ -13414,8 +14275,11 @@
       <c r="M287" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>365</v>
       </c>
@@ -13455,8 +14319,11 @@
       <c r="M288" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>366</v>
       </c>
@@ -13496,8 +14363,11 @@
       <c r="M289" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>367</v>
       </c>
@@ -13537,8 +14407,11 @@
       <c r="M290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>368</v>
       </c>
@@ -13578,8 +14451,11 @@
       <c r="M291" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>369</v>
       </c>
@@ -13619,8 +14495,11 @@
       <c r="M292" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>370</v>
       </c>
@@ -13660,8 +14539,11 @@
       <c r="M293" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>371</v>
       </c>
@@ -13701,8 +14583,11 @@
       <c r="M294" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>383</v>
       </c>
@@ -13742,8 +14627,11 @@
       <c r="M295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>384</v>
       </c>
@@ -13783,8 +14671,11 @@
       <c r="M296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>385</v>
       </c>
@@ -13824,8 +14715,11 @@
       <c r="M297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>386</v>
       </c>
@@ -13865,8 +14759,11 @@
       <c r="M298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>389</v>
       </c>
@@ -13906,8 +14803,11 @@
       <c r="M299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>390</v>
       </c>
@@ -13947,8 +14847,11 @@
       <c r="M300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>391</v>
       </c>
@@ -13988,8 +14891,11 @@
       <c r="M301">
         <v>100</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>392</v>
       </c>
@@ -14029,8 +14935,11 @@
       <c r="M302">
         <v>50</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>393</v>
       </c>
@@ -14070,8 +14979,11 @@
       <c r="M303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>394</v>
       </c>
@@ -14111,8 +15023,11 @@
       <c r="M304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>395</v>
       </c>
@@ -14152,8 +15067,11 @@
       <c r="M305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>396</v>
       </c>
@@ -14193,8 +15111,11 @@
       <c r="M306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>397</v>
       </c>
@@ -14234,8 +15155,11 @@
       <c r="M307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>398</v>
       </c>
@@ -14275,8 +15199,11 @@
       <c r="M308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>402</v>
       </c>
@@ -14316,8 +15243,11 @@
       <c r="M309">
         <v>11400</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>403</v>
       </c>
@@ -14357,8 +15287,11 @@
       <c r="M310">
         <v>4100</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>404</v>
       </c>
@@ -14398,8 +15331,11 @@
       <c r="M311">
         <v>1600</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>405</v>
       </c>
@@ -14439,8 +15375,11 @@
       <c r="M312">
         <v>500</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>406</v>
       </c>
@@ -14480,8 +15419,11 @@
       <c r="M313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>407</v>
       </c>
@@ -14521,8 +15463,11 @@
       <c r="M314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>408</v>
       </c>
@@ -14562,8 +15507,11 @@
       <c r="M315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>409</v>
       </c>
@@ -14603,8 +15551,11 @@
       <c r="M316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>410</v>
       </c>
@@ -14644,8 +15595,11 @@
       <c r="M317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>412</v>
       </c>
@@ -14685,8 +15639,11 @@
       <c r="M318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>416</v>
       </c>
@@ -14726,8 +15683,11 @@
       <c r="M319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>417</v>
       </c>
@@ -14767,8 +15727,11 @@
       <c r="M320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>418</v>
       </c>
@@ -14808,8 +15771,11 @@
       <c r="M321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>419</v>
       </c>
@@ -14849,8 +15815,11 @@
       <c r="M322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>420</v>
       </c>
@@ -14890,8 +15859,11 @@
       <c r="M323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>421</v>
       </c>
@@ -14931,8 +15903,11 @@
       <c r="M324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>422</v>
       </c>
@@ -14972,8 +15947,11 @@
       <c r="M325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>423</v>
       </c>
@@ -15013,8 +15991,11 @@
       <c r="M326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>424</v>
       </c>
@@ -15054,8 +16035,11 @@
       <c r="M327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>425</v>
       </c>
@@ -15095,8 +16079,11 @@
       <c r="M328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>426</v>
       </c>
@@ -15136,8 +16123,11 @@
       <c r="M329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>427</v>
       </c>
@@ -15177,8 +16167,11 @@
       <c r="M330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>428</v>
       </c>
@@ -15218,8 +16211,11 @@
       <c r="M331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>429</v>
       </c>
@@ -15259,8 +16255,11 @@
       <c r="M332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>430</v>
       </c>
@@ -15300,8 +16299,11 @@
       <c r="M333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>431</v>
       </c>
@@ -15341,8 +16343,11 @@
       <c r="M334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>432</v>
       </c>
@@ -15382,8 +16387,11 @@
       <c r="M335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>433</v>
       </c>
@@ -15423,13 +16431,16 @@
       <c r="M336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>434</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C337" s="6">
         <v>0</v>
@@ -15464,13 +16475,16 @@
       <c r="M337" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>435</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C338" s="6">
         <v>0</v>
@@ -15505,13 +16519,16 @@
       <c r="M338" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>436</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C339" s="6">
         <v>0</v>
@@ -15546,8 +16563,11 @@
       <c r="M339" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>438</v>
       </c>
@@ -15587,8 +16607,11 @@
       <c r="M340" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>439</v>
       </c>
@@ -15628,8 +16651,11 @@
       <c r="M341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>440</v>
       </c>
@@ -15669,8 +16695,11 @@
       <c r="M342" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>441</v>
       </c>
@@ -15710,8 +16739,11 @@
       <c r="M343" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>442</v>
       </c>
@@ -15751,8 +16783,11 @@
       <c r="M344" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>446</v>
       </c>
@@ -15792,8 +16827,11 @@
       <c r="M345" s="5">
         <v>250</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N345" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>447</v>
       </c>
@@ -15833,8 +16871,11 @@
       <c r="M346" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>448</v>
       </c>
@@ -15874,8 +16915,11 @@
       <c r="M347" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N347" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>451</v>
       </c>
@@ -15915,8 +16959,11 @@
       <c r="M348" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>452</v>
       </c>
@@ -15956,8 +17003,11 @@
       <c r="M349" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N349" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>453</v>
       </c>
@@ -15997,8 +17047,11 @@
       <c r="M350" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N350" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>454</v>
       </c>
@@ -16038,8 +17091,11 @@
       <c r="M351" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N351" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>458</v>
       </c>
@@ -16079,8 +17135,11 @@
       <c r="M352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>459</v>
       </c>
@@ -16120,8 +17179,11 @@
       <c r="M353">
         <v>17581</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N353">
+        <v>17581</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>460</v>
       </c>
@@ -16161,8 +17223,11 @@
       <c r="M354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>461</v>
       </c>
@@ -16202,8 +17267,11 @@
       <c r="M355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>462</v>
       </c>
@@ -16243,8 +17311,11 @@
       <c r="M356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>463</v>
       </c>
@@ -16284,8 +17355,11 @@
       <c r="M357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>464</v>
       </c>
@@ -16325,8 +17399,11 @@
       <c r="M358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>465</v>
       </c>
@@ -16366,8 +17443,11 @@
       <c r="M359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>466</v>
       </c>
@@ -16407,8 +17487,11 @@
       <c r="M360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>467</v>
       </c>
@@ -16448,8 +17531,11 @@
       <c r="M361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>468</v>
       </c>
@@ -16489,8 +17575,11 @@
       <c r="M362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>469</v>
       </c>
@@ -16530,8 +17619,11 @@
       <c r="M363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>471</v>
       </c>
@@ -16571,8 +17663,11 @@
       <c r="M364">
         <v>2239</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N364">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>472</v>
       </c>
@@ -16612,8 +17707,11 @@
       <c r="M365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>473</v>
       </c>
@@ -16653,8 +17751,11 @@
       <c r="M366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>474</v>
       </c>
@@ -16694,8 +17795,11 @@
       <c r="M367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>475</v>
       </c>
@@ -16735,8 +17839,11 @@
       <c r="M368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>476</v>
       </c>
@@ -16776,8 +17883,11 @@
       <c r="M369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>477</v>
       </c>
@@ -16817,8 +17927,11 @@
       <c r="M370">
         <v>56237</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N370">
+        <v>56237</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>478</v>
       </c>
@@ -16858,8 +17971,11 @@
       <c r="M371">
         <v>56237</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N371">
+        <v>56237</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>479</v>
       </c>
@@ -16899,8 +18015,11 @@
       <c r="M372">
         <v>59051</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N372">
+        <v>59051</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>480</v>
       </c>
@@ -16940,8 +18059,11 @@
       <c r="M373">
         <v>563</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N373">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>482</v>
       </c>
@@ -16981,8 +18103,11 @@
       <c r="M374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>483</v>
       </c>
@@ -17022,8 +18147,11 @@
       <c r="M375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>484</v>
       </c>
@@ -17063,8 +18191,11 @@
       <c r="M376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>485</v>
       </c>
@@ -17104,8 +18235,11 @@
       <c r="M377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>486</v>
       </c>
@@ -17145,8 +18279,11 @@
       <c r="M378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>487</v>
       </c>
@@ -17186,8 +18323,11 @@
       <c r="M379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>488</v>
       </c>
@@ -17227,8 +18367,11 @@
       <c r="M380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>489</v>
       </c>
@@ -17268,8 +18411,11 @@
       <c r="M381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>490</v>
       </c>
@@ -17309,8 +18455,11 @@
       <c r="M382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>491</v>
       </c>
@@ -17350,8 +18499,11 @@
       <c r="M383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>492</v>
       </c>
@@ -17391,8 +18543,11 @@
       <c r="M384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>494</v>
       </c>
@@ -17432,8 +18587,11 @@
       <c r="M385">
         <v>3</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>500</v>
       </c>
@@ -17473,8 +18631,11 @@
       <c r="M386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>501</v>
       </c>
@@ -17514,8 +18675,11 @@
       <c r="M387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>503</v>
       </c>
@@ -17555,8 +18719,11 @@
       <c r="M388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>504</v>
       </c>
@@ -17596,8 +18763,11 @@
       <c r="M389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>505</v>
       </c>
@@ -17637,8 +18807,11 @@
       <c r="M390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>506</v>
       </c>
@@ -17676,6 +18849,9 @@
         <v>0</v>
       </c>
       <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
         <v>0</v>
       </c>
     </row>

--- a/official/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
+++ b/official/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3_PSupdate/official/L1Menu_Collisions2024_v1_1_0/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F2E9F-B6C8-4B4B-8E8A-30427BDB497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8B60C2-7AEA-F249-95F2-D8B1635D7078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1633,25 +1633,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>123</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>124</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>127</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>128</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>129</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>130</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>131</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>132</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>133</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>134</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>135</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>136</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>137</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>138</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>139</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>140</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>141</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>144</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>147</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>148</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>149</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>150</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>151</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>152</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>153</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>154</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>156</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>159</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>160</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>161</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>162</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>163</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>164</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>165</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>166</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>167</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>168</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>169</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>170</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>171</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>172</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>173</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>174</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>175</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>176</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>177</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>178</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>179</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>180</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>181</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>182</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>183</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>185</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>186</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>188</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>189</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>190</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>191</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>192</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>193</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>194</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>195</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>196</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>197</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>198</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>199</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>200</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>201</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>214</v>
       </c>
@@ -10110,40 +10110,40 @@
         <v>0</v>
       </c>
       <c r="D193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K193" s="1">
         <v>0</v>
       </c>
       <c r="L193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N193" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>215</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>216</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>217</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>218</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>219</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>220</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>223</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>224</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>225</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>226</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>227</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>228</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>229</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>230</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>231</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>234</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>235</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>238</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>239</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>240</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>241</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>242</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>243</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>244</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>245</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>248</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>249</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>250</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>257</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>258</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>259</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>263</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>264</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>266</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>267</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>268</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>269</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>270</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>271</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>272</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>278</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>279</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>280</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>281</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>282</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>283</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>284</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>286</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>287</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>288</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>290</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>291</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>298</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>305</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>306</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>307</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>308</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>309</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>310</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>311</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>312</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>314</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>315</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>316</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>317</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>318</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>320</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>28327</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>321</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>322</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>323</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>324</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>327</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>328</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>329</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>330</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>334</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>335</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>336</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>337</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>340</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>341</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>342</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>343</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>345</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>346</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>347</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>348</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>349</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>350</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>357</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>358</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>362</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>363</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>364</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>365</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>366</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>367</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>368</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>369</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>370</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>371</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>383</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>384</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>385</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>386</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>389</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>390</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>391</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>392</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>393</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>394</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>395</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>396</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>397</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>398</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>402</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>403</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>404</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>405</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>406</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>407</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>408</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>409</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>410</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>412</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>416</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>417</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>418</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>419</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>420</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>421</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>422</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>423</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>424</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>425</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>426</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>427</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>428</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>429</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>430</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>431</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>432</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>433</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>434</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>435</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>436</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>438</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>439</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>440</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>441</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>442</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>446</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>447</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>448</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>451</v>
       </c>
@@ -16963,7 +16963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>452</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>453</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>454</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>458</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>459</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>17581</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>460</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>461</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>462</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>463</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>464</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>465</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>466</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>467</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>468</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>469</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>471</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>472</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>473</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>474</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>475</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>476</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>477</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>56237</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>478</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>56237</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>479</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>59051</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>480</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>482</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>483</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>484</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>485</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>486</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>487</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>488</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>489</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>490</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>491</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>492</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>494</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>500</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>501</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>503</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>504</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>505</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>506</v>
       </c>
